--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693F25F0-9E0F-49AB-8DAA-4104EFBD64DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FF184E-15E9-4207-99A0-ECA90E581F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>How long is long? (2000)-homo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsq2_homo_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jswq_homo_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiq_homo_exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,7 +194,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,735 +831,1489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56D9C5A-35F2-4423-8A53-57F65224CBDF}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="11" width="23.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="4" customWidth="1"/>
-    <col min="13" max="13" width="22.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="15" width="23.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.75" style="3" customWidth="1"/>
+    <col min="17" max="17" width="22.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1.9499759999999999</v>
       </c>
       <c r="B2" s="2">
+        <v>1.5688550000000001</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.902879</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.949424</v>
+      </c>
+      <c r="E2" s="2">
         <v>1.4021479999999999</v>
       </c>
-      <c r="C2" s="2">
+      <c r="F2" s="2">
         <v>1.5184899999999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H2" s="1">
         <v>1.5724640000000001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1">
         <v>740.22919899999999</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>1.2075830000000001</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <v>1.115629</v>
       </c>
-      <c r="J2" s="2">
+      <c r="M2" s="2">
         <v>450.74485299999998</v>
       </c>
-      <c r="K2" s="2">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
         <v>2.4610880000000002</v>
       </c>
-      <c r="L2" s="5">
+      <c r="P2" s="4">
         <v>4.593699</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1">
+        <v>4.9824750000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1.4930749999999999</v>
       </c>
       <c r="B3" s="2">
+        <v>1.3861969999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.1615500000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.4930749999999999</v>
+      </c>
+      <c r="E3" s="2">
         <v>1.245487</v>
       </c>
-      <c r="C3" s="2">
+      <c r="F3" s="2">
         <v>1.277012</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>1.0954090000000001</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3" s="1">
         <v>1.3388850000000001</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2">
+      <c r="O3" s="2">
         <v>2.886307</v>
       </c>
-      <c r="L3" s="5">
+      <c r="P3" s="4">
         <v>2.8382079999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2">
+        <v>5.4094999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1.3149550000000001</v>
       </c>
       <c r="B4" s="2">
+        <v>2.0491769999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.8954230000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.314678</v>
+      </c>
+      <c r="E4" s="2">
         <v>1.7901359999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="F4" s="2">
         <v>1.060414</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
         <v>1.174593</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <v>1.3111740000000001</v>
       </c>
-      <c r="K4" s="2">
+      <c r="O4" s="2">
         <v>3.4104390000000002</v>
       </c>
-      <c r="L4" s="2">
+      <c r="P4" s="2">
         <v>2.2286839999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2">
+        <v>5.3199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1.4413469999999999</v>
       </c>
       <c r="B5" s="2">
+        <v>2.2477839999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.7628189999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.4412689999999999</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.7026300000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="F5" s="2">
         <v>0.92508500000000005</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>1.1120319999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <v>0.96391800000000005</v>
       </c>
-      <c r="K5" s="3">
+      <c r="O5" s="2">
         <v>4.2672369999999997</v>
       </c>
-      <c r="L5" s="3">
+      <c r="P5" s="2">
         <v>3.986831</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2">
+        <v>5.0028999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1.5651040000000001</v>
       </c>
       <c r="B6" s="2">
+        <v>1.235303</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.3101449999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.5643530000000001</v>
+      </c>
+      <c r="E6" s="2">
         <v>1.682607</v>
       </c>
-      <c r="C6" s="2">
+      <c r="F6" s="2">
         <v>1.2461979999999999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>1.119111</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6" s="1">
         <v>1.0820879999999999</v>
       </c>
-      <c r="K6" s="3">
+      <c r="O6" s="2">
         <v>3.435975</v>
       </c>
-      <c r="L6" s="3">
+      <c r="P6" s="2">
         <v>3.086138</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q6" s="2">
+        <v>5.0313999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1.4850939999999999</v>
       </c>
       <c r="B7" s="2">
+        <v>1.8115399999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.9661930000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.4835149999999999</v>
+      </c>
+      <c r="E7" s="2">
         <v>1.4736499999999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="F7" s="2">
         <v>1.2773159999999999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
         <v>1.145858</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7" s="1">
         <v>1.081966</v>
       </c>
-      <c r="K7" s="3">
+      <c r="O7" s="2">
         <v>2.6451750000000001</v>
       </c>
-      <c r="L7" s="3">
+      <c r="P7" s="2">
         <v>2.1988810000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2">
+        <v>4.9024999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1.4969460000000001</v>
       </c>
       <c r="B8" s="2">
+        <v>1.578111</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.05708</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.496213</v>
+      </c>
+      <c r="E8" s="2">
         <v>1.3461000000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="F8" s="2">
         <v>1.034597</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
         <v>1.220691</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8" s="1">
         <v>0.95439399999999996</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="2">
         <v>3.2719459999999998</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="2">
         <v>3.9129870000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2">
+        <v>5.4564000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1.341156</v>
       </c>
       <c r="B9" s="2">
+        <v>1.9717910000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.0536889999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.341199</v>
+      </c>
+      <c r="E9" s="2">
         <v>1.3073030000000001</v>
       </c>
-      <c r="C9" s="2">
+      <c r="F9" s="2">
         <v>1.194755</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
         <v>1.0948230000000001</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9" s="1">
         <v>1.104492</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="2">
+        <v>3.7746010000000001</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3.260516</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>5.2950999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1.4658530000000001</v>
       </c>
       <c r="B10" s="2">
+        <v>1.6004929999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.718451</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.465802</v>
+      </c>
+      <c r="E10" s="2">
         <v>1.999932</v>
       </c>
-      <c r="C10" s="2">
+      <c r="F10" s="2">
         <v>1.0037020000000001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="1">
         <v>1.115302</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10" s="1">
         <v>1.0680240000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O10" s="2">
+        <v>3.3452709999999999</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4.6238279999999996</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5.6876999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1.7661210000000001</v>
       </c>
       <c r="B11" s="2">
+        <v>1.369693</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.0170219999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.7657970000000001</v>
+      </c>
+      <c r="E11" s="2">
         <v>1.16733</v>
       </c>
-      <c r="C11" s="2">
+      <c r="F11" s="2">
         <v>0.96692299999999998</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
         <v>1.2294659999999999</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11" s="1">
         <v>1.0636669999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11" s="2">
+        <v>3.3668140000000002</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3.5131130000000002</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>5.1452999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1.5630550000000001</v>
       </c>
       <c r="B12" s="2">
+        <v>1.4546380000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.3347660000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.561901</v>
+      </c>
+      <c r="E12" s="2">
         <v>1.40174</v>
       </c>
-      <c r="C12" s="2">
+      <c r="F12" s="2">
         <v>1.1699740000000001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12" s="1">
         <v>1.159602</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12" s="1">
         <v>1.0950949999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="2">
+        <v>2.8566739999999999</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3.14574</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>5.0428000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1.716431</v>
       </c>
       <c r="B13" s="2">
+        <v>1.4030480000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.998054</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.7155419999999999</v>
+      </c>
+      <c r="E13" s="2">
         <v>1.326065</v>
       </c>
-      <c r="C13" s="2">
+      <c r="F13" s="2">
         <v>1.2522679999999999</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
         <v>1.4409860000000001</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13" s="1">
         <v>1.082713</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13" s="2">
+        <v>4.3637860000000002</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3.301339</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>5.3192000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1.956488</v>
       </c>
       <c r="B14" s="2">
+        <v>1.7118359999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.1664859999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.948701</v>
+      </c>
+      <c r="E14" s="2">
         <v>1.6287160000000001</v>
       </c>
-      <c r="C14" s="2">
+      <c r="F14" s="2">
         <v>1.0225880000000001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="1">
         <v>1.267401</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14" s="1">
         <v>0.99880999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O14" s="2">
+        <v>2.6881930000000001</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3.9461460000000002</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>5.5378999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1.5524199999999999</v>
       </c>
       <c r="B15" s="2">
+        <v>1.6336280000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.1682869999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.5524690000000001</v>
+      </c>
+      <c r="E15" s="2">
         <v>1.4564820000000001</v>
       </c>
-      <c r="C15" s="2">
+      <c r="F15" s="2">
         <v>0.99702100000000005</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15" s="1">
         <v>1.229568</v>
       </c>
-      <c r="I15" s="1">
+      <c r="L15" s="1">
         <v>1.105213</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O15" s="2">
+        <v>3.8314149999999998</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2.525461</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4.827E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1.5194220000000001</v>
       </c>
       <c r="B16" s="2">
+        <v>1.3479589999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.1584370000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.5194220000000001</v>
+      </c>
+      <c r="E16" s="2">
         <v>1.6157779999999999</v>
       </c>
-      <c r="C16" s="2">
+      <c r="F16" s="2">
         <v>1.4560329999999999</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
         <v>1.2267779999999999</v>
       </c>
-      <c r="I16" s="1">
+      <c r="L16" s="1">
         <v>1.2537480000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O16" s="2">
+        <v>3.3402080000000001</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2.6890700000000001</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>5.4321000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1.6225430000000001</v>
       </c>
       <c r="B17" s="2">
+        <v>1.470337</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.0911559999999998</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.6225940000000001</v>
+      </c>
+      <c r="E17" s="2">
         <v>1.2557940000000001</v>
       </c>
-      <c r="C17" s="2">
+      <c r="F17" s="2">
         <v>1.578541</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17" s="1">
         <v>1.280775</v>
       </c>
-      <c r="I17" s="1">
+      <c r="L17" s="1">
         <v>1.132406</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O17" s="2">
+        <v>6.5004759999999999</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3.3906049999999999</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>5.7529999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1.541682</v>
       </c>
       <c r="B18" s="2">
+        <v>1.40463</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.239411</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.5412920000000001</v>
+      </c>
+      <c r="E18" s="2">
         <v>1.257177</v>
       </c>
-      <c r="C18" s="2">
+      <c r="F18" s="2">
         <v>1.056332</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K18" s="1">
         <v>1.072697</v>
       </c>
-      <c r="I18" s="1">
+      <c r="L18" s="1">
         <v>1.0882339999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O18" s="2">
+        <v>2.5974699999999999</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3.5523009999999999</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>5.4876000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1.5009479999999999</v>
       </c>
       <c r="B19" s="2">
+        <v>1.7307889999999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.3291300000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.5008440000000001</v>
+      </c>
+      <c r="E19" s="2">
         <v>1.620026</v>
       </c>
-      <c r="C19" s="2">
+      <c r="F19" s="2">
         <v>1.197681</v>
       </c>
-      <c r="H19" s="1">
+      <c r="K19" s="1">
         <v>1.2486699999999999</v>
       </c>
-      <c r="I19" s="1">
+      <c r="L19" s="1">
         <v>1.10866</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O19" s="2">
+        <v>2.5387810000000002</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2.3438249999999998</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>5.1138999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2.2240319999999998</v>
       </c>
       <c r="B20" s="2">
+        <v>1.472912</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.066246</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.2241580000000001</v>
+      </c>
+      <c r="E20" s="2">
         <v>1.2821880000000001</v>
       </c>
-      <c r="C20" s="2">
+      <c r="F20" s="2">
         <v>1.490364</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20" s="1">
         <v>1.559785</v>
       </c>
-      <c r="I20" s="1">
+      <c r="L20" s="1">
         <v>1.046851</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O20" s="2">
+        <v>3.9885799999999998</v>
+      </c>
+      <c r="P20" s="2">
+        <v>3.6772390000000001</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>5.7176999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1.563965</v>
       </c>
       <c r="B21" s="2">
+        <v>1.517061</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.1097670000000002</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.56362</v>
+      </c>
+      <c r="E21" s="2">
         <v>1.338382</v>
       </c>
-      <c r="C21" s="2">
+      <c r="F21" s="2">
         <v>1.42204</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K21" s="1">
         <v>1.2258690000000001</v>
       </c>
-      <c r="I21" s="1">
+      <c r="L21" s="1">
         <v>1.2502359999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O21" s="2">
+        <v>2.9607730000000001</v>
+      </c>
+      <c r="P21" s="2">
+        <v>4.1531880000000001</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>6.1968000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1.8484130000000001</v>
       </c>
       <c r="B22" s="2">
+        <v>1.4447859999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.7853889999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.848473</v>
+      </c>
+      <c r="E22" s="2">
         <v>1.194391</v>
       </c>
-      <c r="C22" s="2">
+      <c r="F22" s="2">
         <v>1.2338899999999999</v>
       </c>
-      <c r="H22" s="1">
+      <c r="K22" s="1">
         <v>1.2509479999999999</v>
       </c>
-      <c r="I22" s="1">
+      <c r="L22" s="1">
         <v>1.100325</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O22" s="2">
+        <v>3.1543480000000002</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2.8845260000000001</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5.5902E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1.3868419999999999</v>
       </c>
       <c r="B23" s="2">
+        <v>1.884334</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.009312</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.386784</v>
+      </c>
+      <c r="E23" s="2">
         <v>1.644577</v>
       </c>
-      <c r="C23" s="2">
+      <c r="F23" s="2">
         <v>1.5640810000000001</v>
       </c>
-      <c r="H23" s="1">
+      <c r="K23" s="1">
         <v>1.228945</v>
       </c>
-      <c r="I23" s="1">
+      <c r="L23" s="1">
         <v>1.2719339999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O23" s="2">
+        <v>3.7749990000000002</v>
+      </c>
+      <c r="P23" s="2">
+        <v>2.787258</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>5.2365000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2.4019270000000001</v>
       </c>
       <c r="B24" s="2">
+        <v>1.6746970000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2.0842710000000002</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.400344</v>
+      </c>
+      <c r="E24" s="2">
         <v>1.3408850000000001</v>
       </c>
-      <c r="C24" s="2">
+      <c r="F24" s="2">
         <v>1.359353</v>
       </c>
-      <c r="H24" s="1">
+      <c r="K24" s="1">
         <v>1.166863</v>
       </c>
-      <c r="I24" s="1">
+      <c r="L24" s="1">
         <v>1.074352</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O24" s="2">
+        <v>4.2756639999999999</v>
+      </c>
+      <c r="P24" s="2">
+        <v>2.6299459999999999</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>5.0255000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1.482243</v>
       </c>
       <c r="B25" s="2">
+        <v>1.5597479999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.013951</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.4823029999999999</v>
+      </c>
+      <c r="E25" s="2">
         <v>1.177745</v>
       </c>
-      <c r="C25" s="2">
+      <c r="F25" s="2">
         <v>1.4990779999999999</v>
       </c>
-      <c r="H25" s="1">
+      <c r="K25" s="1">
         <v>1.286824</v>
       </c>
-      <c r="I25" s="1">
+      <c r="L25" s="1">
         <v>1.383902</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O25" s="2">
+        <v>4.0672059999999997</v>
+      </c>
+      <c r="P25" s="2">
+        <v>6.6676799999999998</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>5.5163999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1.671915</v>
       </c>
       <c r="B26" s="2">
+        <v>2.1147209999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2.0754190000000001</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.6715500000000001</v>
+      </c>
+      <c r="E26" s="2">
         <v>1.4698359999999999</v>
       </c>
-      <c r="C26" s="2">
+      <c r="F26" s="2">
         <v>1.289938</v>
       </c>
-      <c r="H26" s="1">
+      <c r="K26" s="1">
         <v>1.200814</v>
       </c>
-      <c r="I26" s="1">
+      <c r="L26" s="1">
         <v>0.99641000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O26" s="2">
+        <v>3.4083649999999999</v>
+      </c>
+      <c r="P26" s="2">
+        <v>2.8915459999999999</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>5.3870000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1.9640329999999999</v>
       </c>
       <c r="B27" s="2">
+        <v>1.5354859999999999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2.1657510000000002</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.963392</v>
+      </c>
+      <c r="E27" s="2">
         <v>1.4045890000000001</v>
       </c>
-      <c r="C27" s="2">
+      <c r="F27" s="2">
         <v>1.22644</v>
       </c>
-      <c r="H27" s="1">
+      <c r="K27" s="1">
         <v>1.119219</v>
       </c>
-      <c r="I27" s="1">
+      <c r="L27" s="1">
         <v>1.1090869999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O27" s="2">
+        <v>3.6397430000000002</v>
+      </c>
+      <c r="P27" s="2">
+        <v>2.7421639999999998</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>5.2378000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1.399194</v>
       </c>
       <c r="B28" s="2">
+        <v>1.3986879999999999</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.3700779999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.399292</v>
+      </c>
+      <c r="E28" s="2">
         <v>1.262046</v>
       </c>
-      <c r="C28" s="2">
+      <c r="F28" s="2">
         <v>1.115567</v>
       </c>
-      <c r="H28" s="1">
+      <c r="K28" s="1">
         <v>1.1214440000000001</v>
       </c>
-      <c r="I28" s="1">
+      <c r="L28" s="1">
         <v>0.99039299999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O28" s="2">
+        <v>3.6583350000000001</v>
+      </c>
+      <c r="P28" s="2">
+        <v>3.3767879999999999</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>5.1880999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1.5092890000000001</v>
       </c>
       <c r="B29" s="2">
+        <v>1.5644039999999999</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.021871</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.5074149999999999</v>
+      </c>
+      <c r="E29" s="2">
         <v>1.3465659999999999</v>
       </c>
-      <c r="C29" s="2">
+      <c r="F29" s="2">
         <v>0.96930499999999997</v>
       </c>
-      <c r="H29" s="1">
+      <c r="K29" s="1">
         <v>1.1064970000000001</v>
       </c>
-      <c r="I29" s="1">
+      <c r="L29" s="1">
         <v>1.038951</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O29" s="2">
+        <v>3.8468330000000002</v>
+      </c>
+      <c r="P29" s="2">
+        <v>3.0826570000000002</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>5.5565000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1.644717</v>
       </c>
       <c r="B30" s="2">
+        <v>1.7122230000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.6312549999999999</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.641772</v>
+      </c>
+      <c r="E30" s="2">
         <v>1.4104639999999999</v>
       </c>
-      <c r="C30" s="2">
+      <c r="F30" s="2">
         <v>1.2383569999999999</v>
       </c>
-      <c r="H30" s="1">
+      <c r="K30" s="1">
         <v>1.2016629999999999</v>
       </c>
-      <c r="I30" s="1">
+      <c r="L30" s="1">
         <v>1.132484</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O30" s="2">
+        <v>3.0718990000000002</v>
+      </c>
+      <c r="P30" s="2">
+        <v>7.5514960000000002</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>5.7527000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1.3868860000000001</v>
       </c>
       <c r="B31" s="2">
+        <v>1.9447019999999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.2088429999999999</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.3866750000000001</v>
+      </c>
+      <c r="E31" s="2">
         <v>1.4005019999999999</v>
       </c>
-      <c r="C31" s="2">
+      <c r="F31" s="2">
         <v>1.0862499999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K31" s="1">
+        <v>1.3186199999999999</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.0522069999999999</v>
+      </c>
+      <c r="O31" s="2">
+        <v>4.9535830000000001</v>
+      </c>
+      <c r="P31" s="2">
+        <v>2.290483</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>5.3913000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1.5662419999999999</v>
       </c>
       <c r="B32" s="2">
+        <v>1.4502870000000001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.8655600000000001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.5662799999999999</v>
+      </c>
+      <c r="E32" s="2">
         <v>1.480302</v>
       </c>
-      <c r="C32" s="2">
+      <c r="F32" s="2">
         <v>1.1991240000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K32" s="1">
+        <v>1.1152299999999999</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.0793170000000001</v>
+      </c>
+      <c r="O32" s="2">
+        <v>2.3681109999999999</v>
+      </c>
+      <c r="P32" s="2">
+        <v>3.1602890000000001</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>5.4042E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1.677735</v>
       </c>
       <c r="B33" s="2">
+        <v>1.575501</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.7860210000000001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.6778599999999999</v>
+      </c>
+      <c r="E33" s="2">
         <v>1.6078760000000001</v>
       </c>
-      <c r="C33" s="2">
+      <c r="F33" s="2">
         <v>1.329345</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K33" s="1">
+        <v>1.2548950000000001</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.99769699999999994</v>
+      </c>
+      <c r="O33" s="2">
+        <v>4.7915099999999997</v>
+      </c>
+      <c r="P33" s="2">
+        <v>3.3286509999999998</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>5.2380999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1.677144</v>
       </c>
       <c r="B34" s="2">
+        <v>1.6382399999999999</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2.2063969999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.6771229999999999</v>
+      </c>
+      <c r="E34" s="2">
         <v>1.471708</v>
       </c>
-      <c r="C34" s="2">
+      <c r="F34" s="2">
         <v>1.0870949999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K34" s="1">
+        <v>1.2239800000000001</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1.0118579999999999</v>
+      </c>
+      <c r="O34" s="2">
+        <v>3.886727</v>
+      </c>
+      <c r="P34" s="2">
+        <v>3.1683520000000001</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>5.3337000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1.6681539999999999</v>
       </c>
       <c r="B35" s="2">
+        <v>1.428857</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2.1317249999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.66814</v>
+      </c>
+      <c r="E35" s="2">
         <v>1.4166570000000001</v>
       </c>
-      <c r="C35" s="2">
+      <c r="F35" s="2">
         <v>1.2257359999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K35" s="1">
+        <v>1.2189160000000001</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1.02996</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2.9300320000000002</v>
+      </c>
+      <c r="P35" s="2">
+        <v>3.881462</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>5.1558E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1.7515019999999999</v>
       </c>
       <c r="B36" s="2">
+        <v>1.520354</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2.5101</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.7513730000000001</v>
+      </c>
+      <c r="E36" s="2">
         <v>1.7628969999999999</v>
       </c>
-      <c r="C36" s="2">
+      <c r="F36" s="2">
         <v>1.1456109999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K36" s="1">
+        <v>1.112892</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.3172280000000001</v>
+      </c>
+      <c r="O36" s="2">
+        <v>4.6383419999999997</v>
+      </c>
+      <c r="P36" s="2">
+        <v>3.8874029999999999</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>5.6326000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1.598579</v>
       </c>
       <c r="B37" s="2">
+        <v>1.8720680000000001</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.718329</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.5985320000000001</v>
+      </c>
+      <c r="E37" s="2">
         <v>1.321258</v>
       </c>
-      <c r="C37" s="2">
+      <c r="F37" s="2">
         <v>0.94102300000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K37" s="1">
+        <v>1.4863150000000001</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.3035410000000001</v>
+      </c>
+      <c r="O37" s="2">
+        <v>3.3085740000000001</v>
+      </c>
+      <c r="P37" s="2">
+        <v>3.6757840000000002</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>5.3919000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1.457587</v>
       </c>
       <c r="B38" s="2">
+        <v>1.290556</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.711805</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.4572069999999999</v>
+      </c>
+      <c r="E38" s="2">
         <v>1.4275249999999999</v>
       </c>
-      <c r="C38" s="2">
+      <c r="F38" s="2">
         <v>1.2018279999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K38" s="1">
+        <v>0.96483799999999997</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.088519</v>
+      </c>
+      <c r="O38" s="2">
+        <v>3.9467409999999998</v>
+      </c>
+      <c r="P38" s="2">
+        <v>3.1728010000000002</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>5.6919999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1.339296</v>
       </c>
       <c r="B39" s="2">
+        <v>1.3589960000000001</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.8188870000000001</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.33931</v>
+      </c>
+      <c r="E39" s="2">
         <v>1.5848819999999999</v>
       </c>
-      <c r="C39" s="2">
+      <c r="F39" s="2">
         <v>1.3450839999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K39" s="1">
+        <v>1.247476</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1.172623</v>
+      </c>
+      <c r="O39" s="2">
+        <v>4.0769200000000003</v>
+      </c>
+      <c r="P39" s="2">
+        <v>3.4135979999999999</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>5.2838999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1.5789530000000001</v>
       </c>
       <c r="B40" s="2">
+        <v>1.693765</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.9340010000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.577782</v>
+      </c>
+      <c r="E40" s="2">
         <v>1.487554</v>
       </c>
-      <c r="C40" s="2">
+      <c r="F40" s="2">
         <v>1.2614190000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="K40" s="1">
+        <v>1.463754</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1.1338649999999999</v>
+      </c>
+      <c r="O40" s="2">
+        <v>6.957211</v>
+      </c>
+      <c r="P40" s="2">
+        <v>3.9028870000000002</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>5.6516999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1.448817</v>
       </c>
       <c r="B41" s="2">
+        <v>1.3599479999999999</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2.4787979999999998</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.4486680000000001</v>
+      </c>
+      <c r="E41" s="2">
         <v>1.2837499999999999</v>
       </c>
-      <c r="C41" s="2">
+      <c r="F41" s="2">
         <v>1.8147500000000001</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.4030100000000001</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1.1306480000000001</v>
+      </c>
+      <c r="O41" s="2">
+        <v>3.669861</v>
+      </c>
+      <c r="P41" s="2">
+        <v>3.669861</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>5.1394000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E14DA-721A-4B2F-9A20-B3A8BD112372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8FEF2C-87E4-48E6-B92D-60359313B1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,43 +148,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homo_jsq1_2000</t>
+    <t>doc_4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homo_jsq1_4000</t>
+    <t>doc_2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homo_jiq_2000</t>
+    <t>dos_4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homo_jswq_2000</t>
+    <t>dos_2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homo_jiq_4000</t>
+    <t>jswq_4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homo_jswq_4000</t>
+    <t>jswq_2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homo_dos_2000</t>
+    <t>jiq_4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homo_dos_4000</t>
+    <t>jiq_2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homo_doc_2000</t>
+    <t>jsq1_4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homo_doc_4000</t>
+    <t>jsq1_2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,7 +248,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -556,34 +555,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -593,10 +592,10 @@
       <c r="B2" s="2">
         <v>1.720763</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>1.9044669999999999</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>2.0749930000000001</v>
       </c>
       <c r="G2" s="1">
@@ -608,7 +607,7 @@
       <c r="J2" s="2">
         <v>1.4021479999999999</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="2">
         <v>1.535795</v>
       </c>
       <c r="M2" s="2">
@@ -625,10 +624,10 @@
       <c r="B3" s="1">
         <v>1.4991190000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>2.1613730000000002</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>2.1035819999999998</v>
       </c>
       <c r="G3" s="1">
@@ -640,7 +639,7 @@
       <c r="J3" s="2">
         <v>1.245487</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="2">
         <v>1.4120220000000001</v>
       </c>
       <c r="M3" s="2">
@@ -657,10 +656,10 @@
       <c r="B4" s="2">
         <v>1.4486190000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>1.8996120000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>2.0013070000000002</v>
       </c>
       <c r="G4" s="1">
@@ -672,7 +671,7 @@
       <c r="J4" s="2">
         <v>1.7901359999999999</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>1.596136</v>
       </c>
       <c r="M4" s="2">
@@ -689,10 +688,10 @@
       <c r="B5" s="2">
         <v>1.6108</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>1.7757179999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>2.073947</v>
       </c>
       <c r="G5" s="1">
@@ -704,7 +703,7 @@
       <c r="J5" s="2">
         <v>1.7026300000000001</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <v>1.6858820000000001</v>
       </c>
       <c r="M5" s="2">
@@ -721,10 +720,10 @@
       <c r="B6" s="2">
         <v>1.465935</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>2.3100260000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>2.0498090000000002</v>
       </c>
       <c r="G6" s="1">
@@ -736,7 +735,7 @@
       <c r="J6" s="2">
         <v>1.682607</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <v>1.5882149999999999</v>
       </c>
       <c r="M6" s="2">
@@ -753,10 +752,10 @@
       <c r="B7" s="2">
         <v>1.547526</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>1.9696229999999999</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>2.0520499999999999</v>
       </c>
       <c r="G7" s="1">
@@ -768,7 +767,7 @@
       <c r="J7" s="2">
         <v>1.4736499999999999</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <v>1.40578</v>
       </c>
       <c r="M7" s="2">
@@ -785,10 +784,10 @@
       <c r="B8" s="2">
         <v>1.564967</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>2.0578639999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>2.270295</v>
       </c>
       <c r="G8" s="1">
@@ -800,7 +799,7 @@
       <c r="J8" s="2">
         <v>1.3461000000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="2">
         <v>1.342592</v>
       </c>
       <c r="M8" s="2">
@@ -817,10 +816,10 @@
       <c r="B9" s="2">
         <v>1.3691899999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>2.0536889999999999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>1.999771</v>
       </c>
       <c r="G9" s="1">
@@ -832,7 +831,7 @@
       <c r="J9" s="2">
         <v>1.3073030000000001</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="2">
         <v>1.261989</v>
       </c>
       <c r="M9" s="2">
@@ -849,10 +848,10 @@
       <c r="B10" s="2">
         <v>1.5970219999999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>2.718099</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>2.3060589999999999</v>
       </c>
       <c r="G10" s="1">
@@ -864,7 +863,7 @@
       <c r="J10" s="2">
         <v>1.999932</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="2">
         <v>1.7100569999999999</v>
       </c>
       <c r="M10" s="2">
@@ -881,10 +880,10 @@
       <c r="B11" s="2">
         <v>1.6325449999999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>2.0171899999999998</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>1.9533529999999999</v>
       </c>
       <c r="G11" s="1">
@@ -896,7 +895,7 @@
       <c r="J11" s="2">
         <v>1.16733</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="2">
         <v>1.3474900000000001</v>
       </c>
       <c r="M11" s="2">
@@ -913,10 +912,10 @@
       <c r="B12" s="2">
         <v>1.513655</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>2.335426</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>2.194502</v>
       </c>
       <c r="G12" s="1">
@@ -928,7 +927,7 @@
       <c r="J12" s="2">
         <v>1.40174</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="2">
         <v>1.3620289999999999</v>
       </c>
       <c r="M12" s="2">
@@ -945,10 +944,10 @@
       <c r="B13" s="2">
         <v>1.6378250000000001</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>1.998092</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>1.910989</v>
       </c>
       <c r="G13" s="1">
@@ -960,11 +959,14 @@
       <c r="J13" s="2">
         <v>1.326065</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="2">
         <v>1.392441</v>
       </c>
       <c r="M13" s="2">
         <v>1.2522679999999999</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.190925</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -974,10 +976,10 @@
       <c r="B14" s="2">
         <v>2.0027300000000001</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>2.1737649999999999</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <v>2.22506</v>
       </c>
       <c r="G14" s="1">
@@ -989,11 +991,14 @@
       <c r="J14" s="2">
         <v>1.6287160000000001</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="2">
         <v>1.4714830000000001</v>
       </c>
       <c r="M14" s="2">
         <v>1.0225880000000001</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.022729</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1003,10 +1008,10 @@
       <c r="B15" s="2">
         <v>1.5756380000000001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>2.1681520000000001</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>2.1545879999999999</v>
       </c>
       <c r="G15" s="1">
@@ -1018,11 +1023,14 @@
       <c r="J15" s="2">
         <v>1.4564820000000001</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="2">
         <v>1.394004</v>
       </c>
       <c r="M15" s="2">
         <v>0.99702100000000005</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.96999299999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1032,10 +1040,10 @@
       <c r="B16" s="2">
         <v>1.511727</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>2.158347</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>1.964712</v>
       </c>
       <c r="G16" s="1">
@@ -1047,24 +1055,27 @@
       <c r="J16" s="2">
         <v>1.6157779999999999</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="2">
         <v>1.6009169999999999</v>
       </c>
       <c r="M16" s="2">
         <v>1.4560329999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="1">
+        <v>1.259352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1.6225430000000001</v>
       </c>
       <c r="B17" s="2">
         <v>1.506867</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>2.091431</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>2.036794</v>
       </c>
       <c r="G17" s="1">
@@ -1076,24 +1087,27 @@
       <c r="J17" s="2">
         <v>1.2557940000000001</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="2">
         <v>1.3312139999999999</v>
       </c>
       <c r="M17" s="2">
         <v>1.578541</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="1">
+        <v>1.3238030000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1.541682</v>
       </c>
       <c r="B18" s="2">
         <v>1.493865</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>2.239525</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>2.1707689999999999</v>
       </c>
       <c r="G18" s="1">
@@ -1105,24 +1119,27 @@
       <c r="J18" s="2">
         <v>1.257177</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="2">
         <v>1.3887970000000001</v>
       </c>
       <c r="M18" s="2">
         <v>1.056332</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="1">
+        <v>1.108471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1.5009479999999999</v>
       </c>
       <c r="B19" s="2">
         <v>1.5002409999999999</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2">
         <v>3.3299989999999999</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <v>2.579774</v>
       </c>
       <c r="G19" s="1">
@@ -1134,24 +1151,27 @@
       <c r="J19" s="2">
         <v>1.620026</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="2">
         <v>1.449924</v>
       </c>
       <c r="M19" s="2">
         <v>1.197681</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="1">
+        <v>1.4296549999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2.2240319999999998</v>
       </c>
       <c r="B20" s="2">
         <v>1.872439</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2">
         <v>2.066214</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="2">
         <v>2.008197</v>
       </c>
       <c r="G20" s="1">
@@ -1163,21 +1183,27 @@
       <c r="J20" s="2">
         <v>1.2821880000000001</v>
       </c>
+      <c r="K20" s="2">
+        <v>1.4653860000000001</v>
+      </c>
       <c r="M20" s="2">
         <v>1.490364</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="1">
+        <v>1.3412809999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1.563965</v>
       </c>
       <c r="B21" s="2">
         <v>1.5356780000000001</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2">
         <v>2.110007</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="2">
         <v>2.2574459999999998</v>
       </c>
       <c r="G21" s="1">
@@ -1189,21 +1215,27 @@
       <c r="J21" s="2">
         <v>1.338382</v>
       </c>
+      <c r="K21" s="2">
+        <v>1.5132289999999999</v>
+      </c>
       <c r="M21" s="2">
         <v>1.42204</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="1">
+        <v>1.5067159999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1.8484130000000001</v>
       </c>
       <c r="B22" s="2">
         <v>1.7089270000000001</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
         <v>1.7852710000000001</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="2">
         <v>1.981182</v>
       </c>
       <c r="G22" s="1">
@@ -1215,21 +1247,27 @@
       <c r="J22" s="2">
         <v>1.194391</v>
       </c>
+      <c r="K22" s="2">
+        <v>1.4385490000000001</v>
+      </c>
       <c r="M22" s="2">
         <v>1.2338899999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="1">
+        <v>1.169573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1.3868419999999999</v>
       </c>
       <c r="B23" s="2">
         <v>1.5791280000000001</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
         <v>2.0198809999999998</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="2">
         <v>2.0377209999999999</v>
       </c>
       <c r="G23" s="1">
@@ -1241,21 +1279,27 @@
       <c r="J23" s="2">
         <v>1.644577</v>
       </c>
+      <c r="K23" s="2">
+        <v>1.686064</v>
+      </c>
       <c r="M23" s="2">
         <v>1.5640810000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="1">
+        <v>1.400388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2.4019270000000001</v>
       </c>
       <c r="B24" s="2">
         <v>1.8523860000000001</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
         <v>2.0844330000000002</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="2">
         <v>2.0936050000000002</v>
       </c>
       <c r="G24" s="1">
@@ -1267,21 +1311,27 @@
       <c r="J24" s="2">
         <v>1.3408850000000001</v>
       </c>
+      <c r="K24" s="2">
+        <v>1.548351</v>
+      </c>
       <c r="M24" s="2">
         <v>1.359353</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="1">
+        <v>1.3027409999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1.482243</v>
       </c>
       <c r="B25" s="2">
         <v>1.561874</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
         <v>2.0141019999999998</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="2">
         <v>1.892612</v>
       </c>
       <c r="G25" s="1">
@@ -1293,21 +1343,27 @@
       <c r="J25" s="2">
         <v>1.177745</v>
       </c>
+      <c r="K25" s="2">
+        <v>1.579871</v>
+      </c>
       <c r="M25" s="2">
         <v>1.4990779999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="1">
+        <v>1.283469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1.671915</v>
       </c>
       <c r="B26" s="2">
         <v>1.614357</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2">
         <v>2.075386</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="2">
         <v>2.0363669999999998</v>
       </c>
       <c r="G26" s="1">
@@ -1319,21 +1375,27 @@
       <c r="J26" s="2">
         <v>1.4698359999999999</v>
       </c>
+      <c r="K26" s="2">
+        <v>1.390687</v>
+      </c>
       <c r="M26" s="2">
         <v>1.289938</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="1">
+        <v>1.232162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1.9640329999999999</v>
       </c>
       <c r="B27" s="2">
         <v>1.9543109999999999</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="2">
         <v>2.1656110000000002</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="2">
         <v>2.0454680000000001</v>
       </c>
       <c r="G27" s="1">
@@ -1345,21 +1407,27 @@
       <c r="J27" s="2">
         <v>1.4045890000000001</v>
       </c>
+      <c r="K27" s="2">
+        <v>1.461992</v>
+      </c>
       <c r="M27" s="2">
         <v>1.22644</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="1">
+        <v>1.472213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1.399194</v>
       </c>
       <c r="B28" s="2">
         <v>1.6163700000000001</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2">
         <v>2.370123</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="2">
         <v>2.2315399999999999</v>
       </c>
       <c r="G28" s="1">
@@ -1371,21 +1439,27 @@
       <c r="J28" s="2">
         <v>1.262046</v>
       </c>
+      <c r="K28" s="2">
+        <v>1.269285</v>
+      </c>
       <c r="M28" s="2">
         <v>1.115567</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="1">
+        <v>1.115451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1.5092890000000001</v>
       </c>
       <c r="B29" s="2">
         <v>1.6482950000000001</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="2">
         <v>2.0216850000000002</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="2">
         <v>2.0721340000000001</v>
       </c>
       <c r="G29" s="1">
@@ -1397,21 +1471,27 @@
       <c r="J29" s="2">
         <v>1.3465659999999999</v>
       </c>
+      <c r="K29" s="2">
+        <v>1.273795</v>
+      </c>
       <c r="M29" s="2">
         <v>0.96930499999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="1">
+        <v>1.214218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1.644717</v>
       </c>
       <c r="B30" s="2">
         <v>1.6613020000000001</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="2">
         <v>1.631869</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="2">
         <v>1.6708190000000001</v>
       </c>
       <c r="G30" s="1">
@@ -1423,21 +1503,27 @@
       <c r="J30" s="2">
         <v>1.4104639999999999</v>
       </c>
+      <c r="K30" s="2">
+        <v>1.377481</v>
+      </c>
       <c r="M30" s="2">
         <v>1.2383569999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="1">
+        <v>1.3718410000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1.3868860000000001</v>
       </c>
       <c r="B31" s="2">
         <v>1.5646310000000001</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2">
         <v>2.2090260000000002</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="2">
         <v>2.1831779999999998</v>
       </c>
       <c r="G31" s="1">
@@ -1449,21 +1535,27 @@
       <c r="J31" s="2">
         <v>1.4005019999999999</v>
       </c>
+      <c r="K31" s="2">
+        <v>1.44401</v>
+      </c>
       <c r="M31" s="2">
         <v>1.0862499999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="2">
+        <v>1.065871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1.5662419999999999</v>
       </c>
       <c r="B32" s="2">
         <v>1.5261579999999999</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="2">
         <v>1.8655600000000001</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="2">
         <v>2.1663250000000001</v>
       </c>
       <c r="G32" s="1">
@@ -1475,21 +1567,27 @@
       <c r="J32" s="2">
         <v>1.480302</v>
       </c>
+      <c r="K32" s="2">
+        <v>1.560111</v>
+      </c>
       <c r="M32" s="2">
         <v>1.1991240000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="2">
+        <v>1.1574869999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1.677735</v>
       </c>
       <c r="B33" s="2">
         <v>1.6455340000000001</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="2">
         <v>1.786675</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="2">
         <v>1.8780289999999999</v>
       </c>
       <c r="G33" s="1">
@@ -1501,21 +1599,27 @@
       <c r="J33" s="2">
         <v>1.6078760000000001</v>
       </c>
+      <c r="K33" s="2">
+        <v>1.5062819999999999</v>
+      </c>
       <c r="M33" s="2">
         <v>1.329345</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="2">
+        <v>1.1689229999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1.677144</v>
       </c>
       <c r="B34" s="2">
         <v>1.645294</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="2">
         <v>2.2062349999999999</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="2">
         <v>2.3278970000000001</v>
       </c>
       <c r="G34" s="1">
@@ -1527,21 +1631,27 @@
       <c r="J34" s="2">
         <v>1.471708</v>
       </c>
+      <c r="K34" s="2">
+        <v>1.474199</v>
+      </c>
       <c r="M34" s="2">
         <v>1.0870949999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="2">
+        <v>1.122652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1.6681539999999999</v>
       </c>
       <c r="B35" s="2">
         <v>1.5190950000000001</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="2">
         <v>2.1356850000000001</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="2">
         <v>2.090271</v>
       </c>
       <c r="G35" s="1">
@@ -1553,21 +1663,27 @@
       <c r="J35" s="2">
         <v>1.4166570000000001</v>
       </c>
+      <c r="K35" s="2">
+        <v>1.5052650000000001</v>
+      </c>
       <c r="M35" s="2">
         <v>1.2257359999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="2">
+        <v>1.2080610000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1.7515019999999999</v>
       </c>
       <c r="B36" s="2">
         <v>1.7922359999999999</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="2">
         <v>2.510081</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="2">
         <v>2.460674</v>
       </c>
       <c r="G36" s="1">
@@ -1579,21 +1695,27 @@
       <c r="J36" s="2">
         <v>1.7628969999999999</v>
       </c>
+      <c r="K36" s="2">
+        <v>1.609661</v>
+      </c>
       <c r="M36" s="2">
         <v>1.1456109999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="2">
+        <v>1.1179399999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1.598579</v>
       </c>
       <c r="B37" s="2">
         <v>1.481409</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="2">
         <v>1.7207129999999999</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="2">
         <v>1.905195</v>
       </c>
       <c r="G37" s="1">
@@ -1605,21 +1727,27 @@
       <c r="J37" s="2">
         <v>1.321258</v>
       </c>
+      <c r="K37" s="2">
+        <v>1.4522489999999999</v>
+      </c>
       <c r="M37" s="2">
         <v>0.94102300000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="2">
+        <v>1.0667040000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1.457587</v>
       </c>
       <c r="B38" s="2">
         <v>1.5393490000000001</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="2">
         <v>1.713757</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="2">
         <v>1.8239749999999999</v>
       </c>
       <c r="G38" s="1">
@@ -1631,21 +1759,27 @@
       <c r="J38" s="2">
         <v>1.4275249999999999</v>
       </c>
+      <c r="K38" s="2">
+        <v>1.4642120000000001</v>
+      </c>
       <c r="M38" s="2">
         <v>1.2018279999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2">
+        <v>1.2039470000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1.339296</v>
       </c>
       <c r="B39" s="2">
         <v>1.401786</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="2">
         <v>2.8387449999999999</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="2">
         <v>2.9067479999999999</v>
       </c>
       <c r="G39" s="1">
@@ -1657,21 +1791,27 @@
       <c r="J39" s="2">
         <v>1.5848819999999999</v>
       </c>
+      <c r="K39" s="2">
+        <v>1.5151300000000001</v>
+      </c>
       <c r="M39" s="2">
         <v>1.3450839999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="2">
+        <v>1.251479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1.5789530000000001</v>
       </c>
       <c r="B40" s="2">
         <v>1.606981</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="2">
         <v>1.9339649999999999</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="2">
         <v>2.1192030000000002</v>
       </c>
       <c r="G40" s="1">
@@ -1683,21 +1823,27 @@
       <c r="J40" s="2">
         <v>1.487554</v>
       </c>
+      <c r="K40" s="2">
+        <v>1.362879</v>
+      </c>
       <c r="M40" s="2">
         <v>1.2614190000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="2">
+        <v>1.3496239999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1.448817</v>
       </c>
       <c r="B41" s="2">
         <v>1.4431309999999999</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="2">
         <v>2.478872</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="2">
         <v>2.2315909999999999</v>
       </c>
       <c r="G41" s="1">
@@ -1709,8 +1855,14 @@
       <c r="J41" s="2">
         <v>1.2837499999999999</v>
       </c>
+      <c r="K41" s="2">
+        <v>1.275971</v>
+      </c>
       <c r="M41" s="2">
         <v>1.8147500000000001</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1.8049109999999999</v>
       </c>
     </row>
   </sheetData>

--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8FEF2C-87E4-48E6-B92D-60359313B1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D685C-08F5-40F8-8A91-CA1C18D42FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simutime" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>jsq1_homo_exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,11 +180,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jsq1_4000</t>
+    <t>jsq_2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jsq1_2000</t>
+    <t>jsq_4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,1342 +528,1440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="17.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="17.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="16.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="17.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="17.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9" style="3"/>
+    <col min="16" max="16" width="9.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.25" style="3" customWidth="1"/>
+    <col min="18" max="18" width="14.75" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9" style="3"/>
+    <col min="20" max="20" width="14.625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="15.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9" style="3"/>
+    <col min="23" max="23" width="15" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.25" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9" style="3"/>
+    <col min="26" max="26" width="16.25" style="3" customWidth="1"/>
+    <col min="27" max="27" width="15" style="3" customWidth="1"/>
+    <col min="28" max="28" width="9" style="3"/>
+    <col min="29" max="29" width="17.25" style="3" customWidth="1"/>
+    <col min="30" max="30" width="16.375" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1.9499759999999999</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>1.720763</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1.9044669999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>2.0749930000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>1.9499759999999999</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>1.720763</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>1.4021479999999999</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>1.535795</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>1.5184899999999999</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <v>1.3834660000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1.4930749999999999</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1.4991190000000001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>2.1613730000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>2.1035819999999998</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>1.4930749999999999</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>1.4991190000000001</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>1.245487</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>1.4120220000000001</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>1.277012</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>1.30508</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1.3149550000000001</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>1.4486190000000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>1.8996120000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>2.0013070000000002</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>1.3149550000000001</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>1.4486190000000001</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>1.7901359999999999</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>1.596136</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>1.060414</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>1.298864</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1.4413469999999999</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>1.6108</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>1.7757179999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>2.073947</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>1.4413469999999999</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>1.6108</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>1.7026300000000001</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>1.6858820000000001</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>0.92508500000000005</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <v>1.0783499999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1.5651040000000001</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>1.465935</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>2.3100260000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>2.0498090000000002</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>1.5651040000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>1.465935</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>1.682607</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <v>1.5882149999999999</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <v>1.2461979999999999</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>1.196957</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>1.4850939999999999</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1.547526</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>1.9696229999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>2.0520499999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>1.4850939999999999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>1.547526</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>1.4736499999999999</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>1.40578</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>1.2773159999999999</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <v>1.4417199999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1.4969460000000001</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.564967</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>2.0578639999999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>2.270295</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>1.4969460000000001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>1.564967</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>1.3461000000000001</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>1.342592</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <v>1.034597</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="3">
         <v>1.1557010000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>1.341156</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.3691899999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>2.0536889999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>1.999771</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>1.341156</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>1.3691899999999999</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>1.3073030000000001</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>1.261989</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="4">
         <v>1.194755</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="3">
         <v>1.131481</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>1.4658530000000001</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>1.5970219999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>2.718099</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>2.3060589999999999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>1.4658530000000001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <v>1.5970219999999999</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>1.999932</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>1.7100569999999999</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="4">
         <v>1.0037020000000001</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="3">
         <v>1.1220490000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>1.7661210000000001</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>1.6325449999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>2.0171899999999998</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>1.9533529999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>1.7661210000000001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="3">
         <v>1.6325449999999999</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>1.16733</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>1.3474900000000001</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="4">
         <v>0.96692299999999998</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="3">
         <v>1.0102910000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>1.5630550000000001</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>1.513655</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>2.335426</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>2.194502</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>1.5630550000000001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <v>1.513655</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>1.40174</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <v>1.3620289999999999</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <v>1.1699740000000001</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="3">
         <v>1.156312</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>1.716431</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>1.6378250000000001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>1.998092</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>1.910989</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>1.716431</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>1.6378250000000001</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <v>1.326065</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="4">
         <v>1.392441</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="4">
         <v>1.2522679999999999</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="3">
         <v>1.190925</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>1.956488</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>2.0027300000000001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>2.1737649999999999</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>2.22506</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>1.956488</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>2.0027300000000001</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>1.6287160000000001</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="4">
         <v>1.4714830000000001</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="4">
         <v>1.0225880000000001</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="3">
         <v>1.022729</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>1.5524199999999999</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>1.5756380000000001</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>2.1681520000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>2.1545879999999999</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>1.5524199999999999</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <v>1.5756380000000001</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>1.4564820000000001</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <v>1.394004</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="4">
         <v>0.99702100000000005</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="3">
         <v>0.96999299999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>1.5194220000000001</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>1.511727</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>2.158347</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>1.964712</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>1.5194220000000001</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <v>1.511727</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <v>1.6157779999999999</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="4">
         <v>1.6009169999999999</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="4">
         <v>1.4560329999999999</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="3">
         <v>1.259352</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>1.6225430000000001</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>1.506867</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>2.091431</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>2.036794</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>1.6225430000000001</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <v>1.506867</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="4">
         <v>1.2557940000000001</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="4">
         <v>1.3312139999999999</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="4">
         <v>1.578541</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="3">
         <v>1.3238030000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>1.541682</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>1.493865</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>2.239525</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>2.1707689999999999</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
         <v>1.541682</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="3">
         <v>1.493865</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="4">
         <v>1.257177</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="4">
         <v>1.3887970000000001</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="4">
         <v>1.056332</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="3">
         <v>1.108471</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>1.5009479999999999</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>1.5002409999999999</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>3.3299989999999999</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>2.579774</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <v>1.5009479999999999</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="3">
         <v>1.5002409999999999</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="4">
         <v>1.620026</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="4">
         <v>1.449924</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="4">
         <v>1.197681</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="3">
         <v>1.4296549999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>2.2240319999999998</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>1.872439</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>2.066214</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>2.008197</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
         <v>2.2240319999999998</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="3">
         <v>1.872439</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>1.2821880000000001</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="4">
         <v>1.4653860000000001</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="4">
         <v>1.490364</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="3">
         <v>1.3412809999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>1.563965</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>1.5356780000000001</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>2.110007</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>2.2574459999999998</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>1.563965</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <v>1.5356780000000001</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="4">
         <v>1.338382</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="4">
         <v>1.5132289999999999</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="4">
         <v>1.42204</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="3">
         <v>1.5067159999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>1.8484130000000001</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>1.7089270000000001</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>1.7852710000000001</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>1.981182</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>1.8484130000000001</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <v>1.7089270000000001</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="4">
         <v>1.194391</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="4">
         <v>1.4385490000000001</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="4">
         <v>1.2338899999999999</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="3">
         <v>1.169573</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>1.3868419999999999</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>1.5791280000000001</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>2.0198809999999998</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>2.0377209999999999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>1.3868419999999999</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <v>1.5791280000000001</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="4">
         <v>1.644577</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="4">
         <v>1.686064</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="4">
         <v>1.5640810000000001</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="3">
         <v>1.400388</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>2.4019270000000001</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>1.8523860000000001</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>2.0844330000000002</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>2.0936050000000002</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
         <v>2.4019270000000001</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <v>1.8523860000000001</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="4">
         <v>1.3408850000000001</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="4">
         <v>1.548351</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="4">
         <v>1.359353</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="3">
         <v>1.3027409999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>1.482243</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>1.561874</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>2.0141019999999998</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>1.892612</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <v>1.482243</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="3">
         <v>1.561874</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="4">
         <v>1.177745</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="4">
         <v>1.579871</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="4">
         <v>1.4990779999999999</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="3">
         <v>1.283469</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>1.671915</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>1.614357</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>2.075386</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>2.0363669999999998</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>1.671915</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="3">
         <v>1.614357</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="4">
         <v>1.4698359999999999</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="4">
         <v>1.390687</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="4">
         <v>1.289938</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="3">
         <v>1.232162</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>1.9640329999999999</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>1.9543109999999999</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>2.1656110000000002</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>2.0454680000000001</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3">
         <v>1.9640329999999999</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="3">
         <v>1.9543109999999999</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="4">
         <v>1.4045890000000001</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="4">
         <v>1.461992</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="4">
         <v>1.22644</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="3">
         <v>1.472213</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>1.399194</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>1.6163700000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>2.370123</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>2.2315399999999999</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3">
         <v>1.399194</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="3">
         <v>1.6163700000000001</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="4">
         <v>1.262046</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="4">
         <v>1.269285</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="4">
         <v>1.115567</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="3">
         <v>1.115451</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>1.5092890000000001</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>1.6482950000000001</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>2.0216850000000002</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>2.0721340000000001</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <v>1.5092890000000001</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="3">
         <v>1.6482950000000001</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="4">
         <v>1.3465659999999999</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="4">
         <v>1.273795</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="4">
         <v>0.96930499999999997</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="3">
         <v>1.214218</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>1.644717</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>1.6613020000000001</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>1.631869</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>1.6708190000000001</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>1.644717</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="3">
         <v>1.6613020000000001</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="4">
         <v>1.4104639999999999</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="4">
         <v>1.377481</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="4">
         <v>1.2383569999999999</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="3">
         <v>1.3718410000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>1.3868860000000001</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>1.5646310000000001</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>2.2090260000000002</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <v>2.1831779999999998</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
         <v>1.3868860000000001</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <v>1.5646310000000001</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="4">
         <v>1.4005019999999999</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="4">
         <v>1.44401</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="4">
         <v>1.0862499999999999</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="4">
         <v>1.065871</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>1.5662419999999999</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>1.5261579999999999</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>1.8655600000000001</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="4">
         <v>2.1663250000000001</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
         <v>1.5662419999999999</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <v>1.5261579999999999</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="4">
         <v>1.480302</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="4">
         <v>1.560111</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="4">
         <v>1.1991240000000001</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="4">
         <v>1.1574869999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>1.677735</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>1.6455340000000001</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>1.786675</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <v>1.8780289999999999</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3">
         <v>1.677735</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <v>1.6455340000000001</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="4">
         <v>1.6078760000000001</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="4">
         <v>1.5062819999999999</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="4">
         <v>1.329345</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="4">
         <v>1.1689229999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>1.677144</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>1.645294</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>2.2062349999999999</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="4">
         <v>2.3278970000000001</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="3">
         <v>1.677144</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <v>1.645294</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="4">
         <v>1.471708</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="4">
         <v>1.474199</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="4">
         <v>1.0870949999999999</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="4">
         <v>1.122652</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>1.6681539999999999</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>1.5190950000000001</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>2.1356850000000001</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="4">
         <v>2.090271</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="3">
         <v>1.6681539999999999</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <v>1.5190950000000001</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="4">
         <v>1.4166570000000001</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="4">
         <v>1.5052650000000001</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="4">
         <v>1.2257359999999999</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="4">
         <v>1.2080610000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>1.7515019999999999</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>1.7922359999999999</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>2.510081</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="4">
         <v>2.460674</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="3">
         <v>1.7515019999999999</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <v>1.7922359999999999</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="4">
         <v>1.7628969999999999</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="4">
         <v>1.609661</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="4">
         <v>1.1456109999999999</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="4">
         <v>1.1179399999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>1.598579</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>1.481409</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>1.7207129999999999</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="4">
         <v>1.905195</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="3">
         <v>1.598579</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="3">
         <v>1.481409</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="4">
         <v>1.321258</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="4">
         <v>1.4522489999999999</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="4">
         <v>0.94102300000000005</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="4">
         <v>1.0667040000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>1.457587</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>1.5393490000000001</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <v>1.713757</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="4">
         <v>1.8239749999999999</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="3">
         <v>1.457587</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <v>1.5393490000000001</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="4">
         <v>1.4275249999999999</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="4">
         <v>1.4642120000000001</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="4">
         <v>1.2018279999999999</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="4">
         <v>1.2039470000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>1.339296</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>1.401786</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>2.8387449999999999</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="4">
         <v>2.9067479999999999</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="3">
         <v>1.339296</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="3">
         <v>1.401786</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="4">
         <v>1.5848819999999999</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="4">
         <v>1.5151300000000001</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="4">
         <v>1.3450839999999999</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="4">
         <v>1.251479</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>1.5789530000000001</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>1.606981</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="4">
         <v>1.9339649999999999</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="4">
         <v>2.1192030000000002</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="3">
         <v>1.5789530000000001</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="3">
         <v>1.606981</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="4">
         <v>1.487554</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="4">
         <v>1.362879</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="4">
         <v>1.2614190000000001</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="4">
         <v>1.3496239999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>1.448817</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>1.4431309999999999</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>2.478872</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="4">
         <v>2.2315909999999999</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="3">
         <v>1.448817</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="3">
         <v>1.4431309999999999</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="4">
         <v>1.2837499999999999</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="4">
         <v>1.275971</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="4">
         <v>1.8147500000000001</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="4">
         <v>1.8049109999999999</v>
       </c>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3371,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3111D54-B4B5-4600-AEFB-1DCE31A39BF3}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3436,442 +3534,844 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="4">
+        <v>2.0000450000000001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.982675</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.6468120000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.1310410000000002</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.959862</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4">
+        <v>2.1899329999999999</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.1403409999999998</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3">
+        <v>2.3744010000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.0523769999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.0611100000000002</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="4">
+        <v>2.2582819999999999</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.531231</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3">
+        <v>1.8143629999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.097375</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.471587</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="4">
+        <v>2.42306</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.531231</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3">
+        <v>2.5851510000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.6577569999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.491503</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="4">
+        <v>2.0671810000000002</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.726359</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3">
+        <v>2.3100420000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.640325</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.512721</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4">
+        <v>2.5449540000000002</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.5170029999999999</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3">
+        <v>1.9259599999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.1554190000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.700777</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="4">
+        <v>2.5963219999999998</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.5746060000000002</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3">
+        <v>2.1027979999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.045255</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.980083</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="4">
+        <v>2.156822</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.5529250000000001</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3">
+        <v>1.807625</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.6123970000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.547588</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="4">
+        <v>2.5671970000000002</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.0534859999999999</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3">
+        <v>2.5659550000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.373497</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.537299</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="4">
+        <v>2.3302559999999999</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.4044690000000002</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3">
+        <v>2.4809350000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.979711</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.850722</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="4">
+        <v>1.950895</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.918077</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3">
+        <v>1.9136839999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.8940159999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.7923779999999998</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="4">
+        <v>3.183408</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.716717</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3">
+        <v>2.2689699999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.0120749999999998</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.716248</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="4">
+        <v>2.67361</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.3547250000000002</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3">
+        <v>2.071939</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.0540660000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.710995</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="4">
+        <v>2.3164630000000002</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.8504609999999999</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3">
+        <v>1.790861</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.4610409999999998</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.4541710000000001</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="4">
+        <v>1.958207</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.9773210000000001</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3">
+        <v>3.1511830000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.302765</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.786432</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="4">
+        <v>2.3922699999999999</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.4357829999999998</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3">
+        <v>2.5289609999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.216739</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.8177490000000001</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="4">
+        <v>2.2989220000000001</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.9584969999999999</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="3">
+        <v>2.1656930000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.2494299999999998</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.5273589999999999</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="4">
+        <v>2.6187740000000002</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.1647180000000001</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3">
+        <v>1.846376</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.2587320000000002</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.430553</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="4">
+        <v>2.4580150000000001</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4.5567029999999997</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="3">
+        <v>1.89775</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.585553</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.5666880000000001</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="4">
+        <v>2.7513320000000001</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.6480399999999999</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="3">
+        <v>2.4095399999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.070783</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.7086939999999999</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="4">
+        <v>2.2827839999999999</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.8694269999999999</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="3">
+        <v>2.4610699999999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.1816849999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2.183376</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="4">
+        <v>1.9238440000000001</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.013198</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="3">
+        <v>2.2576800000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.780186</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.661054</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="4">
+        <v>2.0148920000000001</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.4482930000000001</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="3">
+        <v>1.561707</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.2971840000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2.1444529999999999</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="4">
+        <v>2.2172670000000001</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.4132600000000002</v>
+      </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="D25" s="3">
+        <v>2.441843</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.0425559999999998</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.2722470000000001</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="4">
+        <v>1.744189</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.3163019999999999</v>
+      </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="D26" s="3">
+        <v>1.8626210000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.57206</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.6724540000000001</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="4">
+        <v>1.959443</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.035364</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="3">
+        <v>2.7067350000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.656172</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.6898740000000001</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="4">
+        <v>2.4782679999999999</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.998327</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="3">
+        <v>2.6845469999999998</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.9891490000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.3617999999999999</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="4">
+        <v>2.2466469999999998</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.8834930000000001</v>
+      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="3">
+        <v>5.4632899999999998</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.0543290000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.5933740000000001</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="4">
+        <v>2.2547839999999999</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.954186</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="3">
+        <v>3.014875</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.1792989999999999</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.6561409999999999</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="4">
+        <v>2.4535010000000002</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.2910300000000001</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="3">
+        <v>2.6158320000000002</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.3518319999999999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.5507470000000001</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="4">
+        <v>2.2784330000000002</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2.2222010000000001</v>
+      </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="3">
+        <v>2.9319950000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.4294039999999999</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.0542630000000002</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="4">
+        <v>2.3983720000000002</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2.2577790000000002</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="3">
+        <v>2.8777509999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.2012459999999998</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.2133409999999998</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="4">
+        <v>2.9470339999999999</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.3746499999999999</v>
+      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="3">
+        <v>2.4147029999999998</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.2321780000000002</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.672515</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="4">
+        <v>2.8470939999999998</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2.3114499999999998</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="D35" s="3">
+        <v>2.1867239999999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.9898790000000002</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.754292</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="4">
+        <v>2.4464169999999998</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2.1452990000000001</v>
+      </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="3">
+        <v>1.8504290000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.89055</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.9572149999999999</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="4">
+        <v>2.0952600000000001</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.844991</v>
+      </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="D37" s="3">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3.2224719999999998</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.5182100000000001</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="4">
+        <v>2.1011850000000001</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2.1225779999999999</v>
+      </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="D38" s="3">
+        <v>2.0952359999999999</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.9746250000000001</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.9436119999999999</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="4">
+        <v>2.4406889999999999</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2.7873700000000001</v>
+      </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="D39" s="3">
+        <v>2.4490189999999998</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3.214134</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2.7374459999999998</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="4">
+        <v>1.912846</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2.4033229999999999</v>
+      </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="3">
+        <v>2.2257340000000001</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.0214370000000002</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2.1251380000000002</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="4">
+        <v>2.6499579999999998</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.768629</v>
+      </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="D41" s="4">
+        <v>2.2611370000000002</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.999098</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.860493</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>

--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D685C-08F5-40F8-8A91-CA1C18D42FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF2059-F7ED-4DA3-9DC0-74BDAAB085CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>jsq1_homo_exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +248,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1974,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56D9C5A-35F2-4423-8A53-57F65224CBDF}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3469,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3111D54-B4B5-4600-AEFB-1DCE31A39BF3}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3552,10 +3553,28 @@
       <c r="F2" s="2">
         <v>1.959862</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="H2" s="2">
+        <v>1.89828</v>
+      </c>
+      <c r="I2" s="1">
+        <v>516.44289100000003</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.650325</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1.708221</v>
+      </c>
+      <c r="M2" s="2">
+        <v>390.78915799999999</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="4"/>
+      <c r="O2" s="2">
+        <v>3.7510810000000001</v>
+      </c>
+      <c r="P2" s="4">
+        <v>5.8763610000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -3574,8 +3593,27 @@
       <c r="F3" s="2">
         <v>2.0611100000000002</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="4"/>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.6390009999999999</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.4911920000000001</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4.4349059999999998</v>
+      </c>
+      <c r="P3" s="4">
+        <v>4.4990810000000003</v>
+      </c>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3595,8 +3633,18 @@
       <c r="F4" s="2">
         <v>1.471587</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="K4" s="5">
+        <v>1.718491</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2.153451</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5.2007209999999997</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5.3084709999999999</v>
+      </c>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3616,6 +3664,12 @@
       <c r="F5" s="2">
         <v>1.491503</v>
       </c>
+      <c r="K5" s="5">
+        <v>1.6278140000000001</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1.318751</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -3637,6 +3691,12 @@
       <c r="F6" s="2">
         <v>1.512721</v>
       </c>
+      <c r="K6" s="5">
+        <v>1.6988019999999999</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1.5605979999999999</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -3658,6 +3718,12 @@
       <c r="F7" s="2">
         <v>1.700777</v>
       </c>
+      <c r="K7" s="5">
+        <v>1.6838839999999999</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.4636119999999999</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -3678,6 +3744,12 @@
       </c>
       <c r="F8" s="2">
         <v>1.980083</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2.0962320000000001</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.6185929999999999</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>

--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF2059-F7ED-4DA3-9DC0-74BDAAB085CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75B2E1-CF58-4DF4-8A81-CD52A30AE795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simutime" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +210,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,7 +254,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
@@ -1975,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56D9C5A-35F2-4423-8A53-57F65224CBDF}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3470,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3111D54-B4B5-4600-AEFB-1DCE31A39BF3}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3485,7 +3496,7 @@
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="12" width="20" style="1" customWidth="1"/>
     <col min="13" max="15" width="23.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.75" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="22.625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
@@ -3527,7 +3538,7 @@
       <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -3535,16 +3546,16 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>2.0000450000000001</v>
       </c>
       <c r="B2" s="2">
         <v>1.982675</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>2.6468120000000002</v>
       </c>
       <c r="E2" s="2">
@@ -3559,10 +3570,10 @@
       <c r="I2" s="1">
         <v>516.44289100000003</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="2">
         <v>1.650325</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="2">
         <v>1.708221</v>
       </c>
       <c r="M2" s="2">
@@ -3572,19 +3583,22 @@
       <c r="O2" s="2">
         <v>3.7510810000000001</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="2">
         <v>5.8763610000000002</v>
       </c>
+      <c r="Q2" s="2">
+        <v>5.5606139999999998E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2.1899329999999999</v>
       </c>
       <c r="B3" s="2">
         <v>2.1403409999999998</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>2.3744010000000002</v>
       </c>
       <c r="E3" s="2">
@@ -3599,10 +3613,10 @@
       <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="2">
         <v>1.6390009999999999</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="2">
         <v>1.4911920000000001</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -3611,20 +3625,22 @@
       <c r="O3" s="2">
         <v>4.4349059999999998</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="2">
         <v>4.4990810000000003</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="2">
+        <v>6.0137999999999997E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2.2582819999999999</v>
       </c>
       <c r="B4" s="2">
         <v>2.531231</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>1.8143629999999999</v>
       </c>
       <c r="E4" s="2">
@@ -3633,10 +3649,10 @@
       <c r="F4" s="2">
         <v>1.471587</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>1.718491</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <v>2.153451</v>
       </c>
       <c r="O4" s="2">
@@ -3645,17 +3661,19 @@
       <c r="P4" s="2">
         <v>5.3084709999999999</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="2">
+        <v>6.5362000000000003E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>2.42306</v>
       </c>
       <c r="B5" s="2">
         <v>2.531231</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>2.5851510000000002</v>
       </c>
       <c r="E5" s="2">
@@ -3664,25 +3682,31 @@
       <c r="F5" s="2">
         <v>1.491503</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <v>1.6278140000000001</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="2">
         <v>1.318751</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="O5" s="2">
+        <v>7.0100800000000003</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4.5252179999999997</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5.9706000000000002E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>2.0671810000000002</v>
       </c>
       <c r="B6" s="2">
         <v>1.726359</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>2.3100420000000002</v>
       </c>
       <c r="E6" s="2">
@@ -3691,25 +3715,31 @@
       <c r="F6" s="2">
         <v>1.512721</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <v>1.6988019999999999</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>1.5605979999999999</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="O6" s="2">
+        <v>5.9011380000000004</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4.2181360000000003</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6.2031000000000003E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>2.5449540000000002</v>
       </c>
       <c r="B7" s="2">
         <v>3.5170029999999999</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>1.9259599999999999</v>
       </c>
       <c r="E7" s="2">
@@ -3718,25 +3748,31 @@
       <c r="F7" s="2">
         <v>1.700777</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <v>1.6838839999999999</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="2">
         <v>1.4636119999999999</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="O7" s="2">
+        <v>4.6510470000000002</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3.4349509999999999</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>5.9006999999999997E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>2.5963219999999998</v>
       </c>
       <c r="B8" s="2">
         <v>2.5746060000000002</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>2.1027979999999999</v>
       </c>
       <c r="E8" s="2">
@@ -3745,25 +3781,31 @@
       <c r="F8" s="2">
         <v>1.980083</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="2">
         <v>2.0962320000000001</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="2">
         <v>1.6185929999999999</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="O8" s="2">
+        <v>5.1646289999999997</v>
+      </c>
+      <c r="P8" s="2">
+        <v>4.4599209999999996</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>6.3885999999999998E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>2.156822</v>
       </c>
       <c r="B9" s="2">
         <v>2.5529250000000001</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>1.807625</v>
       </c>
       <c r="E9" s="2">
@@ -3772,19 +3814,31 @@
       <c r="F9" s="2">
         <v>1.547588</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="K9" s="2">
+        <v>1.729967</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.657986</v>
+      </c>
+      <c r="O9" s="2">
+        <v>5.5127759999999997</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3.1336170000000001</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>6.1199999999999997E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>2.5671970000000002</v>
       </c>
       <c r="B10" s="2">
         <v>2.0534859999999999</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>2.5659550000000002</v>
       </c>
       <c r="E10" s="2">
@@ -3793,19 +3847,31 @@
       <c r="F10" s="2">
         <v>1.537299</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="K10" s="2">
+        <v>1.6149119999999999</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.847818</v>
+      </c>
+      <c r="O10" s="2">
+        <v>4.748729</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4.4885890000000002</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>6.4856999999999998E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>2.3302559999999999</v>
       </c>
       <c r="B11" s="2">
         <v>2.4044690000000002</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>2.4809350000000001</v>
       </c>
       <c r="E11" s="1">
@@ -3814,19 +3880,31 @@
       <c r="F11" s="2">
         <v>1.850722</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="K11" s="2">
+        <v>1.8747100000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.666104</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5.3598800000000004</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3.4114610000000001</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>6.5154000000000004E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>1.950895</v>
       </c>
       <c r="B12" s="2">
         <v>1.918077</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>1.9136839999999999</v>
       </c>
       <c r="E12" s="2">
@@ -3835,19 +3913,31 @@
       <c r="F12" s="2">
         <v>2.7923779999999998</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="K12" s="2">
+        <v>1.5362690000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.217689</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4.2691949999999999</v>
+      </c>
+      <c r="P12" s="2">
+        <v>4.3416290000000002</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>6.1418E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>3.183408</v>
       </c>
       <c r="B13" s="2">
         <v>2.716717</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>2.2689699999999999</v>
       </c>
       <c r="E13" s="2">
@@ -3856,19 +3946,31 @@
       <c r="F13" s="2">
         <v>1.716248</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="K13" s="2">
+        <v>2.3106059999999999</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.691683</v>
+      </c>
+      <c r="O13" s="2">
+        <v>7.2388709999999996</v>
+      </c>
+      <c r="P13" s="2">
+        <v>4.9785630000000003</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>5.3636000000000003E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>2.67361</v>
       </c>
       <c r="B14" s="2">
         <v>2.3547250000000002</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>2.071939</v>
       </c>
       <c r="E14" s="2">
@@ -3877,19 +3979,31 @@
       <c r="F14" s="2">
         <v>1.710995</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="K14" s="2">
+        <v>1.6640200000000001</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.4789749999999999</v>
+      </c>
+      <c r="O14" s="2">
+        <v>4.1755890000000004</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3.7930929999999998</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>6.0317000000000003E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>2.3164630000000002</v>
       </c>
       <c r="B15" s="2">
         <v>1.8504609999999999</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>1.790861</v>
       </c>
       <c r="E15" s="2">
@@ -3898,19 +4012,31 @@
       <c r="F15" s="2">
         <v>1.4541710000000001</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="K15" s="2">
+        <v>1.8598060000000001</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.7440929999999999</v>
+      </c>
+      <c r="O15" s="2">
+        <v>5.7068070000000004</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3.7620330000000002</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>6.0964999999999998E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>1.958207</v>
       </c>
       <c r="B16" s="2">
         <v>1.9773210000000001</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>3.1511830000000001</v>
       </c>
       <c r="E16" s="2">
@@ -3919,19 +4045,31 @@
       <c r="F16" s="2">
         <v>1.786432</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="K16" s="2">
+        <v>1.7181580000000001</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.7430349999999999</v>
+      </c>
+      <c r="O16" s="2">
+        <v>5.1913410000000004</v>
+      </c>
+      <c r="P16" s="2">
+        <v>4.15571</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>6.5206E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>2.3922699999999999</v>
       </c>
       <c r="B17" s="2">
         <v>2.4357829999999998</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>2.5289609999999998</v>
       </c>
       <c r="E17" s="2">
@@ -3940,19 +4078,31 @@
       <c r="F17" s="2">
         <v>1.8177490000000001</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="K17" s="2">
+        <v>1.933826</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.50125</v>
+      </c>
+      <c r="O17" s="5">
+        <v>12.542684</v>
+      </c>
+      <c r="P17" s="2">
+        <v>9.3163040000000006</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>7.0416999999999993E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>2.2989220000000001</v>
       </c>
       <c r="B18" s="2">
         <v>2.9584969999999999</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>2.1656930000000001</v>
       </c>
       <c r="E18" s="2">
@@ -3961,19 +4111,31 @@
       <c r="F18" s="2">
         <v>1.5273589999999999</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="K18" s="2">
+        <v>1.516635</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.2306649999999999</v>
+      </c>
+      <c r="O18" s="2">
+        <v>3.6760000000000002</v>
+      </c>
+      <c r="P18" s="6">
+        <v>4739444</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>6.2514E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>2.6187740000000002</v>
       </c>
       <c r="B19" s="2">
         <v>2.1647180000000001</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>1.846376</v>
       </c>
       <c r="E19" s="2">
@@ -3982,19 +4144,31 @@
       <c r="F19" s="2">
         <v>1.430553</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="K19" s="2">
+        <v>1.7564280000000001</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.4679500000000001</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3.7575980000000002</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2.7013579999999999</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>6.5697000000000005E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>2.4580150000000001</v>
       </c>
       <c r="B20" s="2">
         <v>4.5567029999999997</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>1.89775</v>
       </c>
       <c r="E20" s="2">
@@ -4003,19 +4177,31 @@
       <c r="F20" s="2">
         <v>1.5666880000000001</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="K20" s="2">
+        <v>2.0156149999999999</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1.788508</v>
+      </c>
+      <c r="O20" s="2">
+        <v>5.7228110000000001</v>
+      </c>
+      <c r="P20" s="2">
+        <v>8.4917560000000005</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>6.4887E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>2.7513320000000001</v>
       </c>
       <c r="B21" s="2">
         <v>2.6480399999999999</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>2.4095399999999998</v>
       </c>
       <c r="E21" s="2">
@@ -4024,19 +4210,31 @@
       <c r="F21" s="2">
         <v>1.7086939999999999</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="K21" s="2">
+        <v>1.8250360000000001</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.507981</v>
+      </c>
+      <c r="O21" s="2">
+        <v>5.7285110000000001</v>
+      </c>
+      <c r="P21" s="2">
+        <v>4.5234550000000002</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>6.6937999999999998E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>2.2827839999999999</v>
       </c>
       <c r="B22" s="2">
         <v>2.8694269999999999</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>2.4610699999999999</v>
       </c>
       <c r="E22" s="2">
@@ -4045,19 +4243,31 @@
       <c r="F22" s="2">
         <v>2.183376</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="K22" s="2">
+        <v>1.7828269999999999</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.4088540000000001</v>
+      </c>
+      <c r="O22" s="2">
+        <v>6.3343660000000002</v>
+      </c>
+      <c r="P22" s="2">
+        <v>4.6619460000000004</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>6.2496999999999997E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>1.9238440000000001</v>
       </c>
       <c r="B23" s="2">
         <v>2.013198</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>2.2576800000000001</v>
       </c>
       <c r="E23" s="2">
@@ -4066,19 +4276,31 @@
       <c r="F23" s="2">
         <v>2.661054</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="K23" s="2">
+        <v>1.9696990000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2.1959749999999998</v>
+      </c>
+      <c r="O23" s="2">
+        <v>7.0781970000000003</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5.5660150000000002</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>6.4399999999999999E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>2.0148920000000001</v>
       </c>
       <c r="B24" s="2">
         <v>2.4482930000000001</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>1.561707</v>
       </c>
       <c r="E24" s="2">
@@ -4087,19 +4309,31 @@
       <c r="F24" s="2">
         <v>2.1444529999999999</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="K24" s="2">
+        <v>1.86392</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.402596</v>
+      </c>
+      <c r="O24" s="2">
+        <v>7.4279200000000003</v>
+      </c>
+      <c r="P24" s="2">
+        <v>4.4139460000000001</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>6.2393999999999998E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>2.2172670000000001</v>
       </c>
       <c r="B25" s="2">
         <v>2.4132600000000002</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>2.441843</v>
       </c>
       <c r="E25" s="2">
@@ -4108,19 +4342,31 @@
       <c r="F25" s="2">
         <v>2.2722470000000001</v>
       </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="K25" s="2">
+        <v>2.174601</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.809731</v>
+      </c>
+      <c r="O25" s="2">
+        <v>6.2300139999999997</v>
+      </c>
+      <c r="P25" s="5">
+        <v>23.377123000000001</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>6.3757999999999995E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>1.744189</v>
       </c>
       <c r="B26" s="2">
         <v>2.3163019999999999</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>1.8626210000000001</v>
       </c>
       <c r="E26" s="2">
@@ -4129,19 +4375,31 @@
       <c r="F26" s="2">
         <v>1.6724540000000001</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="K26" s="2">
+        <v>1.8462879999999999</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1.255487</v>
+      </c>
+      <c r="O26" s="2">
+        <v>5.4174239999999996</v>
+      </c>
+      <c r="P26" s="2">
+        <v>3.7096450000000001</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>6.3846E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>1.959443</v>
       </c>
       <c r="B27" s="2">
         <v>2.035364</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>2.7067350000000001</v>
       </c>
       <c r="E27" s="2">
@@ -4150,19 +4408,31 @@
       <c r="F27" s="2">
         <v>1.6898740000000001</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="K27" s="2">
+        <v>1.6515059999999999</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1.7725740000000001</v>
+      </c>
+      <c r="O27" s="2">
+        <v>5.5497509999999997</v>
+      </c>
+      <c r="P27" s="2">
+        <v>4.7016330000000002</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>6.3253000000000004E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>2.4782679999999999</v>
       </c>
       <c r="B28" s="2">
         <v>1.998327</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>2.6845469999999998</v>
       </c>
       <c r="E28" s="2">
@@ -4171,19 +4441,31 @@
       <c r="F28" s="2">
         <v>1.3617999999999999</v>
       </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="K28" s="2">
+        <v>1.697948</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.5300320000000001</v>
+      </c>
+      <c r="O28" s="2">
+        <v>5.0260009999999999</v>
+      </c>
+      <c r="P28" s="2">
+        <v>5.8021099999999999</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>5.7803E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>2.2466469999999998</v>
       </c>
       <c r="B29" s="2">
         <v>1.8834930000000001</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>5.4632899999999998</v>
       </c>
       <c r="E29" s="2">
@@ -4192,19 +4474,31 @@
       <c r="F29" s="2">
         <v>1.5933740000000001</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="K29" s="2">
+        <v>1.459239</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1.254683</v>
+      </c>
+      <c r="O29" s="2">
+        <v>6.4893140000000002</v>
+      </c>
+      <c r="P29" s="2">
+        <v>9.8945329999999991</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>6.6100000000000006E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>2.2547839999999999</v>
       </c>
       <c r="B30" s="2">
         <v>1.954186</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>3.014875</v>
       </c>
       <c r="E30" s="2">
@@ -4213,19 +4507,31 @@
       <c r="F30" s="2">
         <v>2.6561409999999999</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="K30" s="2">
+        <v>1.891753</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1.4960690000000001</v>
+      </c>
+      <c r="O30" s="2">
+        <v>5.3475599999999996</v>
+      </c>
+      <c r="P30" s="2">
+        <v>5.1512079999999996</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>6.4196000000000003E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>2.4535010000000002</v>
       </c>
       <c r="B31" s="2">
         <v>2.2910300000000001</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>2.6158320000000002</v>
       </c>
       <c r="E31" s="2">
@@ -4234,19 +4540,31 @@
       <c r="F31" s="2">
         <v>1.5507470000000001</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
+      <c r="K31" s="2">
+        <v>2.2825899999999999</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1.472097</v>
+      </c>
+      <c r="O31" s="2">
+        <v>7.3882510000000003</v>
+      </c>
+      <c r="P31" s="2">
+        <v>4.0113989999999999</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>6.2316000000000003E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>2.2784330000000002</v>
       </c>
       <c r="B32" s="2">
         <v>2.2222010000000001</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>2.9319950000000001</v>
       </c>
       <c r="E32" s="2">
@@ -4255,19 +4573,31 @@
       <c r="F32" s="2">
         <v>2.0542630000000002</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+      <c r="K32" s="2">
+        <v>1.6394550000000001</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1.4645509999999999</v>
+      </c>
+      <c r="O32" s="2">
+        <v>3.8784339999999999</v>
+      </c>
+      <c r="P32" s="2">
+        <v>3.6783510000000001</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>6.1193999999999998E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>2.3983720000000002</v>
       </c>
       <c r="B33" s="2">
         <v>2.2577790000000002</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>2.8777509999999999</v>
       </c>
       <c r="E33" s="2">
@@ -4276,19 +4606,31 @@
       <c r="F33" s="2">
         <v>2.2133409999999998</v>
       </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+      <c r="K33" s="2">
+        <v>1.989398</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1.69926</v>
+      </c>
+      <c r="O33" s="2">
+        <v>7.9583839999999997</v>
+      </c>
+      <c r="P33" s="2">
+        <v>4.8862069999999997</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>6.0413000000000001E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>2.9470339999999999</v>
       </c>
       <c r="B34" s="2">
         <v>2.3746499999999999</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>2.4147029999999998</v>
       </c>
       <c r="E34" s="2">
@@ -4297,19 +4639,31 @@
       <c r="F34" s="2">
         <v>1.672515</v>
       </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
+      <c r="K34" s="2">
+        <v>1.9122209999999999</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1.6095189999999999</v>
+      </c>
+      <c r="O34" s="2">
+        <v>5.4112299999999998</v>
+      </c>
+      <c r="P34" s="2">
+        <v>4.0117830000000003</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>6.4394000000000007E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>2.8470939999999998</v>
       </c>
       <c r="B35" s="2">
         <v>2.3114499999999998</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>2.1867239999999999</v>
       </c>
       <c r="E35" s="2">
@@ -4318,19 +4672,31 @@
       <c r="F35" s="2">
         <v>1.754292</v>
       </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="K35" s="2">
+        <v>1.5132140000000001</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1.5868469999999999</v>
+      </c>
+      <c r="O35" s="2">
+        <v>4.3477199999999998</v>
+      </c>
+      <c r="P35" s="2">
+        <v>3.9385080000000001</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>6.1629999999999997E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>2.4464169999999998</v>
       </c>
       <c r="B36" s="2">
         <v>2.1452990000000001</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>1.8504290000000001</v>
       </c>
       <c r="E36" s="2">
@@ -4339,19 +4705,31 @@
       <c r="F36" s="2">
         <v>1.9572149999999999</v>
       </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+      <c r="K36" s="2">
+        <v>1.919465</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2.898015</v>
+      </c>
+      <c r="O36" s="2">
+        <v>7.1245050000000001</v>
+      </c>
+      <c r="P36" s="2">
+        <v>6.5557340000000002</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>6.5395999999999996E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>2.0952600000000001</v>
       </c>
       <c r="B37" s="2">
         <v>1.844991</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>2.4990000000000001</v>
       </c>
       <c r="E37" s="2">
@@ -4360,19 +4738,31 @@
       <c r="F37" s="2">
         <v>1.5182100000000001</v>
       </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="K37" s="2">
+        <v>2.1490290000000001</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1.8861049999999999</v>
+      </c>
+      <c r="O37" s="2">
+        <v>5.0758530000000004</v>
+      </c>
+      <c r="P37" s="2">
+        <v>4.3206049999999996</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>6.8174999999999999E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>2.1011850000000001</v>
       </c>
       <c r="B38" s="2">
         <v>2.1225779999999999</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>2.0952359999999999</v>
       </c>
       <c r="E38" s="2">
@@ -4381,19 +4771,31 @@
       <c r="F38" s="2">
         <v>1.9436119999999999</v>
       </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="K38" s="2">
+        <v>1.404706</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1.4760709999999999</v>
+      </c>
+      <c r="O38" s="2">
+        <v>5.5074459999999998</v>
+      </c>
+      <c r="P38" s="2">
+        <v>6.0067570000000003</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>6.3977999999999993E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>2.4406889999999999</v>
       </c>
       <c r="B39" s="2">
         <v>2.7873700000000001</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>2.4490189999999998</v>
       </c>
       <c r="E39" s="2">
@@ -4402,19 +4804,31 @@
       <c r="F39" s="2">
         <v>2.7374459999999998</v>
       </c>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="K39" s="2">
+        <v>1.8201149999999999</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1.9395450000000001</v>
+      </c>
+      <c r="O39" s="2">
+        <v>6.4876250000000004</v>
+      </c>
+      <c r="P39" s="2">
+        <v>7.5899450000000002</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>6.3783999999999993E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>1.912846</v>
       </c>
       <c r="B40" s="2">
         <v>2.4033229999999999</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>2.2257340000000001</v>
       </c>
       <c r="E40" s="2">
@@ -4423,19 +4837,31 @@
       <c r="F40" s="2">
         <v>2.1251380000000002</v>
       </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="K40" s="2">
+        <v>2.219716</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1.4201839999999999</v>
+      </c>
+      <c r="O40" s="2">
+        <v>9.9034990000000001</v>
+      </c>
+      <c r="P40" s="2">
+        <v>9.8985090000000007</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>6.5761E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>2.6499579999999998</v>
       </c>
       <c r="B41" s="2">
         <v>1.768629</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>2.2611370000000002</v>
       </c>
       <c r="E41" s="2">
@@ -4444,9 +4870,21 @@
       <c r="F41" s="2">
         <v>1.860493</v>
       </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
+      <c r="K41" s="2">
+        <v>2.2601249999999999</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1.772214</v>
+      </c>
+      <c r="O41" s="2">
+        <v>6.2342919999999999</v>
+      </c>
+      <c r="P41" s="2">
+        <v>4.1572040000000001</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>5.8881000000000003E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75B2E1-CF58-4DF4-8A81-CD52A30AE795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43676477-95B4-4FCA-9CE3-E218ABFF0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="1785" windowWidth="18090" windowHeight="13365" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simutime" sheetId="1" r:id="rId1"/>
     <sheet name="homo" sheetId="2" r:id="rId2"/>
     <sheet name="heter" sheetId="3" r:id="rId3"/>
+    <sheet name="more" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>jsq1_homo_exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +188,14 @@
     <t>jsq_4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>all-stable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_unstable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,6 +269,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
@@ -1986,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56D9C5A-35F2-4423-8A53-57F65224CBDF}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3482,7 +3492,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4890,4 +4900,227 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982F46A2-F817-499E-BFFD-5864EA1740C7}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="21.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.124662</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.12407</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.124461</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.124001</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.122693</v>
+      </c>
+      <c r="G2" s="7">
+        <v>4.0390000000000002E-2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.12173299999999999</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3.0384920000000002</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.122936</v>
+      </c>
+      <c r="M2" s="7">
+        <v>9.7383999999999998E-2</v>
+      </c>
+      <c r="N2" s="7">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.12726100000000001</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>9.0959999999999999E-3</v>
+      </c>
+      <c r="R2" s="7">
+        <v>8.9409999999999993E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.14237900000000001</v>
+      </c>
+      <c r="C6" s="7">
+        <v>9.0453000000000006E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.14263899999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.14002800000000001</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.13889099999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3.8378000000000002E-2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.139292</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.124559</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.14150599999999999</v>
+      </c>
+      <c r="M6" s="7">
+        <v>7.5711000000000001E-2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>7.5434000000000001E-2</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.14799899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43676477-95B4-4FCA-9CE3-E218ABFF0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D2508B-F403-4AC2-AB5B-4DFD82FA1158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="1785" windowWidth="18090" windowHeight="13365" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="1740" windowWidth="18090" windowHeight="13365" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simutime" sheetId="1" r:id="rId1"/>
@@ -266,10 +266,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1996,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56D9C5A-35F2-4423-8A53-57F65224CBDF}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3491,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3111D54-B4B5-4600-AEFB-1DCE31A39BF3}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4130,8 +4130,8 @@
       <c r="O18" s="2">
         <v>3.6760000000000002</v>
       </c>
-      <c r="P18" s="6">
-        <v>4739444</v>
+      <c r="P18" s="7">
+        <v>4.7394439999999998</v>
       </c>
       <c r="Q18" s="2">
         <v>6.2514E-2</v>
@@ -4906,8 +4906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982F46A2-F817-499E-BFFD-5864EA1740C7}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4981,46 +4981,46 @@
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.124662</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.12407</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.124461</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0.124001</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.122693</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>4.0390000000000002E-2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.12173299999999999</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>3.0384920000000002</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>0.122936</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>9.7383999999999998E-2</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0.12726100000000001</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>9.0959999999999999E-3</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>8.9409999999999993E-3</v>
       </c>
     </row>
@@ -5028,6 +5028,48 @@
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B3" s="6">
+        <v>24094</v>
+      </c>
+      <c r="C3" s="6">
+        <v>24084</v>
+      </c>
+      <c r="D3" s="6">
+        <v>24333</v>
+      </c>
+      <c r="E3" s="6">
+        <v>24028</v>
+      </c>
+      <c r="F3" s="6">
+        <v>24265</v>
+      </c>
+      <c r="G3" s="6">
+        <v>23741</v>
+      </c>
+      <c r="I3" s="6">
+        <v>24067</v>
+      </c>
+      <c r="J3" s="6">
+        <v>6088</v>
+      </c>
+      <c r="L3" s="6">
+        <v>24020</v>
+      </c>
+      <c r="M3" s="6">
+        <v>11953</v>
+      </c>
+      <c r="N3" s="6">
+        <v>12032</v>
+      </c>
+      <c r="P3" s="6">
+        <v>24104</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>39817</v>
+      </c>
+      <c r="R3" s="6">
+        <v>39979</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -5077,46 +5119,94 @@
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.14237900000000001</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>9.0453000000000006E-2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.14263899999999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>0.14002800000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.13889099999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>3.8378000000000002E-2</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>0.139292</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>0.124559</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>0.14150599999999999</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>7.5711000000000001E-2</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>7.5434000000000001E-2</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>0.14799899999999999</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>9.4479999999999998E-3</v>
+      </c>
+      <c r="R6" s="6">
+        <v>9.4470000000000005E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="B7" s="6">
+        <v>21467</v>
+      </c>
+      <c r="C7" s="6">
+        <v>21623</v>
+      </c>
+      <c r="D7" s="6">
+        <v>21434</v>
+      </c>
+      <c r="E7" s="6">
+        <v>21573</v>
+      </c>
+      <c r="F7" s="6">
+        <v>21486</v>
+      </c>
+      <c r="G7" s="6">
+        <v>21363</v>
+      </c>
+      <c r="I7" s="6">
+        <v>21493</v>
+      </c>
+      <c r="J7" s="6">
+        <v>10120</v>
+      </c>
+      <c r="L7" s="6">
+        <v>21508</v>
+      </c>
+      <c r="M7" s="6">
+        <v>12165</v>
+      </c>
+      <c r="N7" s="6">
+        <v>12176</v>
+      </c>
+      <c r="P7" s="6">
+        <v>21402</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>39811</v>
+      </c>
+      <c r="R7" s="6">
+        <v>39978</v>
       </c>
     </row>
   </sheetData>

--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D2508B-F403-4AC2-AB5B-4DFD82FA1158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809F951-9306-4DA4-B94C-D844B0CD64B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="1740" windowWidth="18090" windowHeight="13365" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="1890" windowWidth="18090" windowHeight="13365" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simutime" sheetId="1" r:id="rId1"/>
@@ -4906,8 +4906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982F46A2-F817-499E-BFFD-5864EA1740C7}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5212,5 +5212,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>